--- a/natmiOut/OldD7/LR-pairs_lrc2p/Rgma-Neo1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Rgma-Neo1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.77825558439276</v>
+        <v>2.068078666666667</v>
       </c>
       <c r="H2">
-        <v>1.77825558439276</v>
+        <v>6.204236</v>
       </c>
       <c r="I2">
-        <v>0.0429792733264853</v>
+        <v>0.04745723096963421</v>
       </c>
       <c r="J2">
-        <v>0.0429792733264853</v>
+        <v>0.04745723096963421</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.58756078360829</v>
+        <v>5.872120333333332</v>
       </c>
       <c r="N2">
-        <v>5.58756078360829</v>
+        <v>17.616361</v>
       </c>
       <c r="O2">
-        <v>0.07579942561815141</v>
+        <v>0.07819433676692768</v>
       </c>
       <c r="P2">
-        <v>0.07579942561815141</v>
+        <v>0.07819433676692769</v>
       </c>
       <c r="Q2">
-        <v>9.936111166585428</v>
+        <v>12.14400678946622</v>
       </c>
       <c r="R2">
-        <v>9.936111166585428</v>
+        <v>109.296061105196</v>
       </c>
       <c r="S2">
-        <v>0.003257804231633122</v>
+        <v>0.003710886700465447</v>
       </c>
       <c r="T2">
-        <v>0.003257804231633122</v>
+        <v>0.003710886700465448</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.77825558439276</v>
+        <v>2.068078666666667</v>
       </c>
       <c r="H3">
-        <v>1.77825558439276</v>
+        <v>6.204236</v>
       </c>
       <c r="I3">
-        <v>0.0429792733264853</v>
+        <v>0.04745723096963421</v>
       </c>
       <c r="J3">
-        <v>0.0429792733264853</v>
+        <v>0.04745723096963421</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>59.2513889927486</v>
+        <v>59.62659933333333</v>
       </c>
       <c r="N3">
-        <v>59.2513889927486</v>
+        <v>178.879798</v>
       </c>
       <c r="O3">
-        <v>0.8037892430456386</v>
+        <v>0.7939998031155241</v>
       </c>
       <c r="P3">
-        <v>0.8037892430456386</v>
+        <v>0.7939998031155242</v>
       </c>
       <c r="Q3">
-        <v>105.3641133593829</v>
+        <v>123.3124980471475</v>
       </c>
       <c r="R3">
-        <v>105.3641133593829</v>
+        <v>1109.812482424328</v>
       </c>
       <c r="S3">
-        <v>0.03454627757374722</v>
+        <v>0.03768103204629752</v>
       </c>
       <c r="T3">
-        <v>0.03454627757374722</v>
+        <v>0.03768103204629752</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.77825558439276</v>
+        <v>2.068078666666667</v>
       </c>
       <c r="H4">
-        <v>1.77825558439276</v>
+        <v>6.204236</v>
       </c>
       <c r="I4">
-        <v>0.0429792733264853</v>
+        <v>0.04745723096963421</v>
       </c>
       <c r="J4">
-        <v>0.0429792733264853</v>
+        <v>0.04745723096963421</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.210173761745483</v>
+        <v>0.226786</v>
       </c>
       <c r="N4">
-        <v>0.210173761745483</v>
+        <v>0.680358</v>
       </c>
       <c r="O4">
-        <v>0.002851163689717571</v>
+        <v>0.003019928041555994</v>
       </c>
       <c r="P4">
-        <v>0.002851163689717571</v>
+        <v>0.003019928041555994</v>
       </c>
       <c r="Q4">
-        <v>0.3737426655167386</v>
+        <v>0.4690112884986667</v>
       </c>
       <c r="R4">
-        <v>0.3737426655167386</v>
+        <v>4.221101596488</v>
       </c>
       <c r="S4">
-        <v>0.0001225409435189218</v>
+        <v>0.0001433174225797979</v>
       </c>
       <c r="T4">
-        <v>0.0001225409435189218</v>
+        <v>0.0001433174225797979</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.77825558439276</v>
+        <v>2.068078666666667</v>
       </c>
       <c r="H5">
-        <v>1.77825558439276</v>
+        <v>6.204236</v>
       </c>
       <c r="I5">
-        <v>0.0429792733264853</v>
+        <v>0.04745723096963421</v>
       </c>
       <c r="J5">
-        <v>0.0429792733264853</v>
+        <v>0.04745723096963421</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.66595725625997</v>
+        <v>9.370985666666668</v>
       </c>
       <c r="N5">
-        <v>8.66595725625997</v>
+        <v>28.112957</v>
       </c>
       <c r="O5">
-        <v>0.1175601676464924</v>
+        <v>0.1247859320759922</v>
       </c>
       <c r="P5">
-        <v>0.1175601676464924</v>
+        <v>0.1247859320759922</v>
       </c>
       <c r="Q5">
-        <v>15.41028688505325</v>
+        <v>19.37993554287245</v>
       </c>
       <c r="R5">
-        <v>15.41028688505325</v>
+        <v>174.419419885852</v>
       </c>
       <c r="S5">
-        <v>0.005052650577586032</v>
+        <v>0.005921994800291447</v>
       </c>
       <c r="T5">
-        <v>0.005052650577586032</v>
+        <v>0.005921994800291447</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>26.8641026416861</v>
+        <v>26.94592933333334</v>
       </c>
       <c r="H6">
-        <v>26.8641026416861</v>
+        <v>80.837788</v>
       </c>
       <c r="I6">
-        <v>0.6492877740642981</v>
+        <v>0.6183416582138921</v>
       </c>
       <c r="J6">
-        <v>0.6492877740642981</v>
+        <v>0.6183416582138921</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.58756078360829</v>
+        <v>5.872120333333332</v>
       </c>
       <c r="N6">
-        <v>5.58756078360829</v>
+        <v>17.616361</v>
       </c>
       <c r="O6">
-        <v>0.07579942561815141</v>
+        <v>0.07819433676692768</v>
       </c>
       <c r="P6">
-        <v>0.07579942561815141</v>
+        <v>0.07819433676692769</v>
       </c>
       <c r="Q6">
-        <v>150.1048064075131</v>
+        <v>158.2297395388298</v>
       </c>
       <c r="R6">
-        <v>150.1048064075131</v>
+        <v>1424.067655849468</v>
       </c>
       <c r="S6">
-        <v>0.04921564033496185</v>
+        <v>0.04835081585939757</v>
       </c>
       <c r="T6">
-        <v>0.04921564033496185</v>
+        <v>0.04835081585939758</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>26.8641026416861</v>
+        <v>26.94592933333334</v>
       </c>
       <c r="H7">
-        <v>26.8641026416861</v>
+        <v>80.837788</v>
       </c>
       <c r="I7">
-        <v>0.6492877740642981</v>
+        <v>0.6183416582138921</v>
       </c>
       <c r="J7">
-        <v>0.6492877740642981</v>
+        <v>0.6183416582138921</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.2513889927486</v>
+        <v>59.62659933333333</v>
       </c>
       <c r="N7">
-        <v>59.2513889927486</v>
+        <v>178.879798</v>
       </c>
       <c r="O7">
-        <v>0.8037892430456386</v>
+        <v>0.7939998031155241</v>
       </c>
       <c r="P7">
-        <v>0.8037892430456386</v>
+        <v>0.7939998031155242</v>
       </c>
       <c r="Q7">
-        <v>1591.735395563668</v>
+        <v>1606.694132022981</v>
       </c>
       <c r="R7">
-        <v>1591.735395563668</v>
+        <v>14460.24718820682</v>
       </c>
       <c r="S7">
-        <v>0.5218905284339297</v>
+        <v>0.490963154879957</v>
       </c>
       <c r="T7">
-        <v>0.5218905284339297</v>
+        <v>0.4909631548799571</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>26.8641026416861</v>
+        <v>26.94592933333334</v>
       </c>
       <c r="H8">
-        <v>26.8641026416861</v>
+        <v>80.837788</v>
       </c>
       <c r="I8">
-        <v>0.6492877740642981</v>
+        <v>0.6183416582138921</v>
       </c>
       <c r="J8">
-        <v>0.6492877740642981</v>
+        <v>0.6183416582138921</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.210173761745483</v>
+        <v>0.226786</v>
       </c>
       <c r="N8">
-        <v>0.210173761745483</v>
+        <v>0.680358</v>
       </c>
       <c r="O8">
-        <v>0.002851163689717571</v>
+        <v>0.003019928041555994</v>
       </c>
       <c r="P8">
-        <v>0.002851163689717571</v>
+        <v>0.003019928041555994</v>
       </c>
       <c r="Q8">
-        <v>5.646129508119935</v>
+        <v>6.110959529789334</v>
       </c>
       <c r="R8">
-        <v>5.646129508119935</v>
+        <v>54.998635768104</v>
       </c>
       <c r="S8">
-        <v>0.001851225725589673</v>
+        <v>0.001867347312902365</v>
       </c>
       <c r="T8">
-        <v>0.001851225725589673</v>
+        <v>0.001867347312902365</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>26.8641026416861</v>
+        <v>26.94592933333334</v>
       </c>
       <c r="H9">
-        <v>26.8641026416861</v>
+        <v>80.837788</v>
       </c>
       <c r="I9">
-        <v>0.6492877740642981</v>
+        <v>0.6183416582138921</v>
       </c>
       <c r="J9">
-        <v>0.6492877740642981</v>
+        <v>0.6183416582138921</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.66595725625997</v>
+        <v>9.370985666666668</v>
       </c>
       <c r="N9">
-        <v>8.66595725625997</v>
+        <v>28.112957</v>
       </c>
       <c r="O9">
-        <v>0.1175601676464924</v>
+        <v>0.1247859320759922</v>
       </c>
       <c r="P9">
-        <v>0.1175601676464924</v>
+        <v>0.1247859320759922</v>
       </c>
       <c r="Q9">
-        <v>232.8031652206323</v>
+        <v>252.5099175576796</v>
       </c>
       <c r="R9">
-        <v>232.8031652206323</v>
+        <v>2272.589258019116</v>
       </c>
       <c r="S9">
-        <v>0.07633037956981677</v>
+        <v>0.0771603401616351</v>
       </c>
       <c r="T9">
-        <v>0.07633037956981677</v>
+        <v>0.0771603401616351</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.182243537858222</v>
+        <v>0.195412</v>
       </c>
       <c r="H10">
-        <v>0.182243537858222</v>
+        <v>0.586236</v>
       </c>
       <c r="I10">
-        <v>0.004404707002941261</v>
+        <v>0.004484216469959312</v>
       </c>
       <c r="J10">
-        <v>0.004404707002941261</v>
+        <v>0.004484216469959312</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.58756078360829</v>
+        <v>5.872120333333332</v>
       </c>
       <c r="N10">
-        <v>5.58756078360829</v>
+        <v>17.616361</v>
       </c>
       <c r="O10">
-        <v>0.07579942561815141</v>
+        <v>0.07819433676692768</v>
       </c>
       <c r="P10">
-        <v>0.07579942561815141</v>
+        <v>0.07819433676692769</v>
       </c>
       <c r="Q10">
-        <v>1.018296845202634</v>
+        <v>1.147482778577333</v>
       </c>
       <c r="R10">
-        <v>1.018296845202634</v>
+        <v>10.327345007196</v>
       </c>
       <c r="S10">
-        <v>0.0003338742608391967</v>
+        <v>0.0003506403327878021</v>
       </c>
       <c r="T10">
-        <v>0.0003338742608391967</v>
+        <v>0.0003506403327878021</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.182243537858222</v>
+        <v>0.195412</v>
       </c>
       <c r="H11">
-        <v>0.182243537858222</v>
+        <v>0.586236</v>
       </c>
       <c r="I11">
-        <v>0.004404707002941261</v>
+        <v>0.004484216469959312</v>
       </c>
       <c r="J11">
-        <v>0.004404707002941261</v>
+        <v>0.004484216469959312</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>59.2513889927486</v>
+        <v>59.62659933333333</v>
       </c>
       <c r="N11">
-        <v>59.2513889927486</v>
+        <v>178.879798</v>
       </c>
       <c r="O11">
-        <v>0.8037892430456386</v>
+        <v>0.7939998031155241</v>
       </c>
       <c r="P11">
-        <v>0.8037892430456386</v>
+        <v>0.7939998031155242</v>
       </c>
       <c r="Q11">
-        <v>10.79818275305222</v>
+        <v>11.65175302892533</v>
       </c>
       <c r="R11">
-        <v>10.79818275305222</v>
+        <v>104.865777260328</v>
       </c>
       <c r="S11">
-        <v>0.00354045610773198</v>
+        <v>0.003560466994275084</v>
       </c>
       <c r="T11">
-        <v>0.00354045610773198</v>
+        <v>0.003560466994275085</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.182243537858222</v>
+        <v>0.195412</v>
       </c>
       <c r="H12">
-        <v>0.182243537858222</v>
+        <v>0.586236</v>
       </c>
       <c r="I12">
-        <v>0.004404707002941261</v>
+        <v>0.004484216469959312</v>
       </c>
       <c r="J12">
-        <v>0.004404707002941261</v>
+        <v>0.004484216469959312</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.210173761745483</v>
+        <v>0.226786</v>
       </c>
       <c r="N12">
-        <v>0.210173761745483</v>
+        <v>0.680358</v>
       </c>
       <c r="O12">
-        <v>0.002851163689717571</v>
+        <v>0.003019928041555994</v>
       </c>
       <c r="P12">
-        <v>0.002851163689717571</v>
+        <v>0.003019928041555994</v>
       </c>
       <c r="Q12">
-        <v>0.03830280990546786</v>
+        <v>0.044316705832</v>
       </c>
       <c r="R12">
-        <v>0.03830280990546786</v>
+        <v>0.398850352488</v>
       </c>
       <c r="S12">
-        <v>1.255854067063083E-05</v>
+        <v>1.354201106203736E-05</v>
       </c>
       <c r="T12">
-        <v>1.255854067063083E-05</v>
+        <v>1.354201106203736E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.182243537858222</v>
+        <v>0.195412</v>
       </c>
       <c r="H13">
-        <v>0.182243537858222</v>
+        <v>0.586236</v>
       </c>
       <c r="I13">
-        <v>0.004404707002941261</v>
+        <v>0.004484216469959312</v>
       </c>
       <c r="J13">
-        <v>0.004404707002941261</v>
+        <v>0.004484216469959312</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.66595725625997</v>
+        <v>9.370985666666668</v>
       </c>
       <c r="N13">
-        <v>8.66595725625997</v>
+        <v>28.112957</v>
       </c>
       <c r="O13">
-        <v>0.1175601676464924</v>
+        <v>0.1247859320759922</v>
       </c>
       <c r="P13">
-        <v>0.1175601676464924</v>
+        <v>0.1247859320759922</v>
       </c>
       <c r="Q13">
-        <v>1.579314709308948</v>
+        <v>1.831203051094667</v>
       </c>
       <c r="R13">
-        <v>1.579314709308948</v>
+        <v>16.480827459852</v>
       </c>
       <c r="S13">
-        <v>0.0005178180936994538</v>
+        <v>0.0005595671318343881</v>
       </c>
       <c r="T13">
-        <v>0.0005178180936994538</v>
+        <v>0.0005595671318343881</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>12.5501225336219</v>
+        <v>14.36831566666667</v>
       </c>
       <c r="H14">
-        <v>12.5501225336219</v>
+        <v>43.104947</v>
       </c>
       <c r="I14">
-        <v>0.3033282456062754</v>
+        <v>0.3297168943465144</v>
       </c>
       <c r="J14">
-        <v>0.3033282456062754</v>
+        <v>0.3297168943465145</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.58756078360829</v>
+        <v>5.872120333333332</v>
       </c>
       <c r="N14">
-        <v>5.58756078360829</v>
+        <v>17.616361</v>
       </c>
       <c r="O14">
-        <v>0.07579942561815141</v>
+        <v>0.07819433676692768</v>
       </c>
       <c r="P14">
-        <v>0.07579942561815141</v>
+        <v>0.07819433676692769</v>
       </c>
       <c r="Q14">
-        <v>70.12457249834445</v>
+        <v>84.37247858198521</v>
       </c>
       <c r="R14">
-        <v>70.12457249834445</v>
+        <v>759.352307237867</v>
       </c>
       <c r="S14">
-        <v>0.02299210679071723</v>
+        <v>0.02578199387427686</v>
       </c>
       <c r="T14">
-        <v>0.02299210679071723</v>
+        <v>0.02578199387427687</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>12.5501225336219</v>
+        <v>14.36831566666667</v>
       </c>
       <c r="H15">
-        <v>12.5501225336219</v>
+        <v>43.104947</v>
       </c>
       <c r="I15">
-        <v>0.3033282456062754</v>
+        <v>0.3297168943465144</v>
       </c>
       <c r="J15">
-        <v>0.3033282456062754</v>
+        <v>0.3297168943465145</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.2513889927486</v>
+        <v>59.62659933333333</v>
       </c>
       <c r="N15">
-        <v>59.2513889927486</v>
+        <v>178.879798</v>
       </c>
       <c r="O15">
-        <v>0.8037892430456386</v>
+        <v>0.7939998031155241</v>
       </c>
       <c r="P15">
-        <v>0.8037892430456386</v>
+        <v>0.7939998031155242</v>
       </c>
       <c r="Q15">
-        <v>743.6121921462909</v>
+        <v>856.7338013511895</v>
       </c>
       <c r="R15">
-        <v>743.6121921462909</v>
+        <v>7710.604212160706</v>
       </c>
       <c r="S15">
-        <v>0.2438119809302296</v>
+        <v>0.2617951491949945</v>
       </c>
       <c r="T15">
-        <v>0.2438119809302296</v>
+        <v>0.2617951491949946</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>12.5501225336219</v>
+        <v>14.36831566666667</v>
       </c>
       <c r="H16">
-        <v>12.5501225336219</v>
+        <v>43.104947</v>
       </c>
       <c r="I16">
-        <v>0.3033282456062754</v>
+        <v>0.3297168943465144</v>
       </c>
       <c r="J16">
-        <v>0.3033282456062754</v>
+        <v>0.3297168943465145</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.210173761745483</v>
+        <v>0.226786</v>
       </c>
       <c r="N16">
-        <v>0.210173761745483</v>
+        <v>0.680358</v>
       </c>
       <c r="O16">
-        <v>0.002851163689717571</v>
+        <v>0.003019928041555994</v>
       </c>
       <c r="P16">
-        <v>0.002851163689717571</v>
+        <v>0.003019928041555994</v>
       </c>
       <c r="Q16">
-        <v>2.637706463258067</v>
+        <v>3.258532836780667</v>
       </c>
       <c r="R16">
-        <v>2.637706463258067</v>
+        <v>29.326795531026</v>
       </c>
       <c r="S16">
-        <v>0.0008648384799383455</v>
+        <v>0.0009957212950117938</v>
       </c>
       <c r="T16">
-        <v>0.0008648384799383455</v>
+        <v>0.000995721295011794</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>12.5501225336219</v>
+        <v>14.36831566666667</v>
       </c>
       <c r="H17">
-        <v>12.5501225336219</v>
+        <v>43.104947</v>
       </c>
       <c r="I17">
-        <v>0.3033282456062754</v>
+        <v>0.3297168943465144</v>
       </c>
       <c r="J17">
-        <v>0.3033282456062754</v>
+        <v>0.3297168943465145</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.66595725625997</v>
+        <v>9.370985666666668</v>
       </c>
       <c r="N17">
-        <v>8.66595725625997</v>
+        <v>28.112957</v>
       </c>
       <c r="O17">
-        <v>0.1175601676464924</v>
+        <v>0.1247859320759922</v>
       </c>
       <c r="P17">
-        <v>0.1175601676464924</v>
+        <v>0.1247859320759922</v>
       </c>
       <c r="Q17">
-        <v>108.7588254371925</v>
+        <v>134.6452801664755</v>
       </c>
       <c r="R17">
-        <v>108.7588254371925</v>
+        <v>1211.807521498279</v>
       </c>
       <c r="S17">
-        <v>0.03565931940539015</v>
+        <v>0.04114402998223123</v>
       </c>
       <c r="T17">
-        <v>0.03565931940539015</v>
+        <v>0.04114402998223124</v>
       </c>
     </row>
   </sheetData>
